--- a/Doc/Calendario.xlsx
+++ b/Doc/Calendario.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,9 +507,7 @@
       <c r="B5" s="6">
         <v>43124</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -518,7 +516,9 @@
       <c r="B6" s="6">
         <v>43129</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">

--- a/Doc/Calendario.xlsx
+++ b/Doc/Calendario.xlsx
@@ -452,13 +452,13 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
